--- a/pred_ohlcv/54_21/2020-01-21 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 STEEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-5085.018428029995</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3067.246571970006</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3234.861571970006</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2942.921571970006</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3940.587471970005</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3934.679571970005</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3934.679571970005</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3928.049071970005</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3928.049071970005</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3924.731771970005</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3774.224571970005</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1114.302328029995</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>18406.42767197001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>18406.42767197001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>15643.11267197001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>14589.53767197001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>14589.53767197001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>14589.53767197001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>13560.23897197001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>6920.784771970006</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-11125.72272802999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-11125.72272802999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>34322.61667197</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>34452.61667197</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>26437.51617197</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>26437.51617197</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>20641.70517197</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>20651.70517197</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>20827.70517197</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>21644.70517197</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>22485.65357197</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>22485.65357197</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>22377.15457197</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>22483.13717197</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>22429.11497197</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>22429.11497197</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>22429.11497197</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>22505.27607197001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>22598.98437197</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>22368.23877197001</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>22427.29627197</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>22427.29627197</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>22216.61977197</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>9632.606471970003</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>9632.606471970003</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>9632.606471970003</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>4116.759971970003</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>4125.331071970003</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3931.042671970003</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2130.822171970003</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1771.175671970003</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2437.552771970003</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>3132.123671970003</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>3147.123671970003</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>3147.123671970003</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>3147.123671970003</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>2968.397671970003</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2968.397671970003</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2968.397671970003</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>10148.55067197</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>10148.55067197</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>9969.263471970002</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>9969.263471970002</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>9969.263471970002</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>9969.263471970002</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>9969.263471970002</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>15949.21697197</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>16477.06897197</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>15963.37297197</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>16329.12497197</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>15493.50297197</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>15493.50297197</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>15502.50297197</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>15331.93297197</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>15334.93297197</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>15053.93297197</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>15155.92097197</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>14994.28597197</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>14436.15897197</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>8256.952271970003</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1198.047728029997</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1192.047728029997</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3914.378628029996</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-5177.971228029996</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-5174.971228029996</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-5355.333928029996</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-5352.333928029996</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-5584.260228029996</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-5581.260228029996</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-6493.187528029996</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-16493.18752803</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-16227.18752803</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-17134.18652803</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-17134.18652803</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-17134.18652803</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-17134.18652803</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-22230.57252803</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-22341.79462802999</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-40065.71469219001</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-35974.36183459</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-34266.06340363</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-34357.75350363</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-34251.41790363</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-34256.41790363</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-34256.41790363</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-29532.01751411</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-34538.91026735001</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-27236.16026735001</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-27236.16026735001</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-32355.84996735001</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-32352.84996735001</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-32352.84996735001</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-25349.84996735001</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-25347.14996735001</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-25263.97096735001</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-25421.51646735001</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-25414.81646735001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-25445.53036735001</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-25442.53036735001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-25768.96006735001</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-25766.26006735001</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-26066.00866735</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-34257.59276735</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-34257.59276735</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-35307.59276735</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-35317.56776735</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-35294.86756735</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-39370.81556735</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-41076.17811299</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-41076.17811299</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-41076.17811299</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-41076.17811299</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-41159.79761299</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-53268.33751298999</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-60538.51231298999</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-100538.51231299</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-95721.40561299</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-95721.40561299</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-96026.08121299</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-95744.99721299</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-98169.29101299</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-97794.29101299</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-130316.40651299</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-135859.15991299</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-133971.05781299</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-126683.05781299</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-126683.05781299</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-126899.03591299</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-125270.74191299</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-125356.05441299</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-113426.61309415</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-111177.09499415</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-112677.09499415</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-113107.76459415</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-110287.76459415</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-72237.84759414999</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-72429.67369415</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-72429.67369415</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-72429.67369415</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-73296.80879415</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-89626.10199330999</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-89615.57567753</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-86462.13967752999</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-87087.53057752999</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-87039.64187753</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-87039.64187753</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-87033.64187753</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-87158.64187753</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-91401.52197752999</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-115740.89127753</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-164153.17074521</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-164153.17074521</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-164153.17074521</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-153283.56224521</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-166524.12584521</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-166524.12584521</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-174654.3480452099</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-174654.3480452099</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-175095.1578452099</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-169707.6895452099</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-190148.8557452099</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 STEEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-5085.018428029995</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3067.246571970006</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3234.861571970006</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2942.921571970006</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3940.587471970005</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3934.679571970005</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3934.679571970005</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3928.049071970005</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3928.049071970005</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3924.731771970005</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3774.224571970005</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1114.302328029995</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>18406.42767197001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>18406.42767197001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>15643.11267197001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>14589.53767197001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>14589.53767197001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>14589.53767197001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>13560.23897197001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>6920.784771970006</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-11125.72272802999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-11125.72272802999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>34452.61667197</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>26437.51617197</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>26437.51617197</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>22483.13717197</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>22429.11497197</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>22429.11497197</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>22505.27607197001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>22598.98437197</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>22368.23877197001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>22216.61977197</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>9632.606471970003</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>3147.123671970003</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>3147.123671970003</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>3147.123671970003</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>2968.397671970003</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2968.397671970003</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2968.397671970003</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>10148.55067197</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>10148.55067197</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>9969.263471970002</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>9969.263471970002</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>9969.263471970002</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>15949.21697197</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>16477.06897197</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>15963.37297197</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>16329.12497197</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>15493.50297197</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>15493.50297197</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>15502.50297197</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>15331.93297197</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>15334.93297197</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>15053.93297197</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>15155.92097197</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>14994.28597197</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>14436.15897197</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>8256.952271970003</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1198.047728029997</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3914.378628029996</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-5177.971228029996</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-5355.333928029996</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-5352.333928029996</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-5584.260228029996</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-5581.260228029996</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-6493.187528029996</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-16493.18752803</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-17134.18652803</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-40065.71469219001</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-35974.36183459</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-34266.06340363</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-34357.75350363</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-34251.41790363</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-34256.41790363</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-34256.41790363</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-29532.01751411</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-34538.91026735001</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-27236.16026735001</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-27236.16026735001</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-32355.84996735001</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-32352.84996735001</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-32352.84996735001</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-25349.84996735001</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-25347.14996735001</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-25263.97096735001</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-25421.51646735001</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-25414.81646735001</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-25445.53036735001</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-25442.53036735001</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-25768.96006735001</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-25766.26006735001</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-26066.00866735</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-34257.59276735</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-34257.59276735</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-35307.59276735</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-35317.56776735</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-35294.86756735</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-39370.81556735</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-41076.17811299</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-41076.17811299</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-41076.17811299</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-41076.17811299</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-41159.79761299</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-53268.33751298999</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-60538.51231298999</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-100538.51231299</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-95721.40561299</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-95721.40561299</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-96026.08121299</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-95744.99721299</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-98169.29101299</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-97794.29101299</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-130316.40651299</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-135859.15991299</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-133971.05781299</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-126683.05781299</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-126683.05781299</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-126899.03591299</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-125270.74191299</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-125356.05441299</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-113426.61309415</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-111177.09499415</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-112677.09499415</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-112670.85019415</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-113107.76459415</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-110287.76459415</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-72237.84759414999</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-72429.67369415</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-72429.67369415</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-72429.67369415</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-73296.80879415</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-89626.10199330999</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-89615.57567753</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-86462.13967752999</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-87087.53057752999</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-87039.64187753</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-87039.64187753</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-87033.64187753</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-87158.64187753</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-91401.52197752999</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-115740.89127753</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-164153.17074521</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-164153.17074521</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-164153.17074521</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-153283.56224521</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-166524.12584521</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-166524.12584521</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-174654.3480452099</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-174654.3480452099</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-174654.3480452099</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-173861.11104521</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-175095.1578452099</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-169707.6895452099</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-190148.8557452099</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
